--- a/Assets/Economy/SountRegion.xlsx
+++ b/Assets/Economy/SountRegion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity projects\Merchant\Merchant\Assets\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F295C-2096-493D-A65C-7A117A23660A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D5011B-37FA-444C-96BD-5F76B955962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,13 +863,13 @@
         <v>158</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,13 +905,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C5">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -975,13 +975,13 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,10 +1003,10 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1045,10 +1045,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>220</v>
       </c>
       <c r="D17">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1213,10 +1213,10 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C27">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -1227,13 +1227,13 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>140</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,10 +1353,10 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -1381,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>80</v>
@@ -1451,7 +1451,7 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>90</v>
@@ -1465,7 +1465,7 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>100</v>
@@ -1479,7 +1479,7 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C46">
         <v>220</v>
@@ -1507,10 +1507,10 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C48">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D48">
         <v>35</v>
@@ -1535,10 +1535,10 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1549,13 +1549,13 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C51">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,13 +1577,13 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C53">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,10 +1591,10 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C54">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D54">
         <v>7</v>
@@ -1619,10 +1619,10 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D56">
         <v>7</v>
@@ -1647,13 +1647,13 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C58">
         <v>170</v>
       </c>
       <c r="D58">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1661,10 +1661,10 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C59">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D59">
         <v>20</v>
@@ -1689,13 +1689,13 @@
         <v>58</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C61">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
         <v>59</v>
       </c>
       <c r="B62">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C62">
         <v>220</v>
@@ -1717,13 +1717,13 @@
         <v>60</v>
       </c>
       <c r="B63">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1759,13 +1759,13 @@
         <v>63</v>
       </c>
       <c r="B66">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C66">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1787,10 +1787,10 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1885,10 +1885,10 @@
         <v>72</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>73</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1955,13 +1955,13 @@
         <v>77</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C80">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2039,7 +2039,7 @@
         <v>83</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C86">
         <v>80</v>
@@ -2053,7 +2053,7 @@
         <v>84</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C87">
         <v>90</v>
@@ -2067,7 +2067,7 @@
         <v>85</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C88">
         <v>100</v>
@@ -2137,13 +2137,13 @@
         <v>90</v>
       </c>
       <c r="B93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C93">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D93">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,10 +2207,10 @@
         <v>95</v>
       </c>
       <c r="B98">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C98">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D98">
         <v>50</v>
@@ -2291,7 +2291,7 @@
         <v>101</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C104">
         <v>80</v>
@@ -2305,7 +2305,7 @@
         <v>102</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C105">
         <v>90</v>
@@ -2319,7 +2319,7 @@
         <v>103</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C106">
         <v>100</v>
@@ -2347,13 +2347,13 @@
         <v>105</v>
       </c>
       <c r="B108">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C108">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D108">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>119</v>
       </c>
       <c r="B122">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C122">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2669,13 +2669,13 @@
         <v>128</v>
       </c>
       <c r="B131">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C131">
         <v>200</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,10 +2711,10 @@
         <v>131</v>
       </c>
       <c r="B134">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C134">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D134">
         <v>10</v>
@@ -2907,10 +2907,10 @@
         <v>145</v>
       </c>
       <c r="B148">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C148">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D148">
         <v>35</v>
@@ -2977,10 +2977,10 @@
         <v>150</v>
       </c>
       <c r="B153">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -3061,10 +3061,10 @@
         <v>156</v>
       </c>
       <c r="B159">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C159">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D159">
         <v>7</v>
